--- a/WIP/Deliverables/Report 5/Test Result/WS_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverables/Report 5/Test Result/WS_Integration Test Case_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\WIP\Documents\Report 5\Test Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WingS\201609JS01 (GitHub Desktop)\WIP\Deliverables\Report 5\Test Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -5218,6 +5218,19 @@
     <xf numFmtId="14" fontId="3" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5269,19 +5282,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5762,13 +5762,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="244" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -5779,11 +5779,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="245" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -5795,11 +5795,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="240" t="s">
+      <c r="C5" s="245" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -5808,15 +5808,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="242" t="str">
+      <c r="C6" s="247" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="242"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -5825,10 +5825,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="241"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="242"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -5990,39 +5990,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246" t="str">
+      <c r="C3" s="250"/>
+      <c r="D3" s="251" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="245" t="s">
+      <c r="B4" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="245"/>
-      <c r="D4" s="246" t="str">
+      <c r="C4" s="250"/>
+      <c r="D4" s="251" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="243" t="s">
+      <c r="B5" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="244" t="s">
+      <c r="C5" s="248"/>
+      <c r="D5" s="249" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -6185,8 +6185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6200,15 +6200,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="62"/>
@@ -6224,15 +6224,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="246" t="str">
+      <c r="C3" s="251" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="247" t="s">
+      <c r="D3" s="251"/>
+      <c r="E3" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="247"/>
+      <c r="F3" s="252"/>
       <c r="G3" s="10" t="s">
         <v>180</v>
       </c>
@@ -6242,15 +6242,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="246" t="str">
+      <c r="C4" s="251" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="D4" s="246"/>
-      <c r="E4" s="247" t="s">
+      <c r="D4" s="251"/>
+      <c r="E4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="247"/>
+      <c r="F4" s="252"/>
       <c r="G4" s="10" t="s">
         <v>693</v>
       </c>
@@ -6260,15 +6260,15 @@
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="246" t="str">
+      <c r="C5" s="251" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="246"/>
-      <c r="E5" s="247" t="s">
+      <c r="D5" s="251"/>
+      <c r="E5" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="247"/>
+      <c r="F5" s="252"/>
       <c r="G5" s="115"/>
       <c r="H5" s="67"/>
     </row>
@@ -6277,12 +6277,12 @@
       <c r="B6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="248"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="62"/>
@@ -6347,11 +6347,11 @@
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E11" s="76">
         <f>User_Function!B6</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F11" s="76">
         <f>User_Function!C6</f>
@@ -6403,11 +6403,11 @@
       </c>
       <c r="D13" s="79">
         <f>SUM(D9:D12)</f>
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="E13" s="79">
         <f>SUM(E9:E12)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
@@ -6458,7 +6458,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="85">
         <f>D13*100/(H13-G13)</f>
-        <v>97.183098591549296</v>
+        <v>100</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>43</v>
@@ -6498,7 +6498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -6511,11 +6511,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="255" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -6623,232 +6623,232 @@
       <c r="A14" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="257" t="s">
+      <c r="B14" s="239" t="s">
         <v>712</v>
       </c>
       <c r="C14" s="161"/>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="258" t="s">
+      <c r="A15" s="240" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="259" t="s">
+      <c r="B15" s="241" t="s">
         <v>713</v>
       </c>
       <c r="C15" s="161"/>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="258" t="s">
+      <c r="A16" s="240" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="259" t="s">
+      <c r="B16" s="241" t="s">
         <v>714</v>
       </c>
       <c r="C16" s="161"/>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="258" t="s">
+      <c r="A17" s="240" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="259" t="s">
+      <c r="B17" s="241" t="s">
         <v>715</v>
       </c>
       <c r="C17" s="161"/>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="A18" s="258" t="s">
+      <c r="A18" s="240" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="259" t="s">
+      <c r="B18" s="241" t="s">
         <v>716</v>
       </c>
       <c r="C18" s="161"/>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="258" t="s">
+      <c r="A19" s="240" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="257" t="s">
+      <c r="B19" s="239" t="s">
         <v>717</v>
       </c>
       <c r="C19" s="161"/>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="258" t="s">
+      <c r="A20" s="240" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="257" t="s">
+      <c r="B20" s="239" t="s">
         <v>718</v>
       </c>
       <c r="C20" s="161"/>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="258" t="s">
+      <c r="A21" s="240" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="257" t="s">
+      <c r="B21" s="239" t="s">
         <v>719</v>
       </c>
       <c r="C21" s="161"/>
     </row>
     <row r="22" spans="1:3" ht="60">
-      <c r="A22" s="258" t="s">
+      <c r="A22" s="240" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="260" t="s">
+      <c r="B22" s="242" t="s">
         <v>720</v>
       </c>
       <c r="C22" s="161"/>
     </row>
     <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="258" t="s">
+      <c r="A23" s="240" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="259" t="s">
+      <c r="B23" s="241" t="s">
         <v>721</v>
       </c>
       <c r="C23" s="161"/>
     </row>
     <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="258" t="s">
+      <c r="A24" s="240" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="259" t="s">
+      <c r="B24" s="241" t="s">
         <v>722</v>
       </c>
       <c r="C24" s="161"/>
     </row>
     <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="258" t="s">
+      <c r="A25" s="240" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="259" t="s">
+      <c r="B25" s="241" t="s">
         <v>723</v>
       </c>
       <c r="C25" s="161"/>
     </row>
     <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="261" t="s">
+      <c r="A26" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="259" t="s">
+      <c r="B26" s="241" t="s">
         <v>724</v>
       </c>
       <c r="C26" s="161"/>
     </row>
     <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="243" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="259" t="s">
+      <c r="B27" s="241" t="s">
         <v>725</v>
       </c>
       <c r="C27" s="161"/>
     </row>
     <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="261" t="s">
+      <c r="A28" s="243" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="259" t="s">
+      <c r="B28" s="241" t="s">
         <v>726</v>
       </c>
       <c r="C28" s="161"/>
     </row>
     <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="261" t="s">
+      <c r="A29" s="243" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="259" t="s">
+      <c r="B29" s="241" t="s">
         <v>727</v>
       </c>
       <c r="C29" s="161"/>
     </row>
     <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="261" t="s">
+      <c r="A30" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="259" t="s">
+      <c r="B30" s="241" t="s">
         <v>728</v>
       </c>
       <c r="C30" s="161"/>
     </row>
     <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="261" t="s">
+      <c r="A31" s="243" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="259" t="s">
+      <c r="B31" s="241" t="s">
         <v>729</v>
       </c>
       <c r="C31" s="161"/>
     </row>
     <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="261" t="s">
+      <c r="A32" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="259" t="s">
+      <c r="B32" s="241" t="s">
         <v>730</v>
       </c>
       <c r="C32" s="161"/>
     </row>
     <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="261" t="s">
+      <c r="A33" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="259" t="s">
+      <c r="B33" s="241" t="s">
         <v>731</v>
       </c>
       <c r="C33" s="161"/>
     </row>
     <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="261" t="s">
+      <c r="A34" s="243" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="259" t="s">
+      <c r="B34" s="241" t="s">
         <v>732</v>
       </c>
       <c r="C34" s="161"/>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" s="261" t="s">
+      <c r="A35" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="259" t="s">
+      <c r="B35" s="241" t="s">
         <v>733</v>
       </c>
       <c r="C35" s="161"/>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" s="261" t="s">
+      <c r="A36" s="243" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="259" t="s">
+      <c r="B36" s="241" t="s">
         <v>734</v>
       </c>
       <c r="C36" s="161"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="261" t="s">
+      <c r="A37" s="243" t="s">
         <v>735</v>
       </c>
-      <c r="B37" s="259" t="s">
+      <c r="B37" s="241" t="s">
         <v>736</v>
       </c>
       <c r="C37" s="161"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="261" t="s">
+      <c r="A38" s="243" t="s">
         <v>737</v>
       </c>
-      <c r="B38" s="259" t="s">
+      <c r="B38" s="241" t="s">
         <v>738</v>
       </c>
       <c r="C38" s="161"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="261" t="s">
+      <c r="A39" s="243" t="s">
         <v>739</v>
       </c>
-      <c r="B39" s="259" t="s">
+      <c r="B39" s="241" t="s">
         <v>740</v>
       </c>
       <c r="C39" s="161"/>
@@ -6869,8 +6869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV176"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+    <sheetView topLeftCell="A136" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F133" sqref="F131:G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -7143,14 +7143,14 @@
       <c r="A2" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="256" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="149" t="s">
         <v>22</v>
       </c>
@@ -7398,14 +7398,14 @@
       <c r="A3" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="256" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
       <c r="H3" s="149" t="s">
         <v>24</v>
       </c>
@@ -7653,14 +7653,14 @@
       <c r="A4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="257" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
       <c r="H4" s="149" t="s">
         <v>27</v>
       </c>
@@ -7915,11 +7915,11 @@
       <c r="D5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="253" t="s">
+      <c r="E5" s="258" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
       <c r="H5" s="150" t="s">
         <v>26</v>
       </c>
@@ -8166,11 +8166,11 @@
     <row r="6" spans="1:252" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G335,"Pass")</f>
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G782,"Fail")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
@@ -8180,12 +8180,12 @@
         <f>COUNTIF(F11:G782,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="254">
+      <c r="E6" s="259">
         <f>COUNTA(F12:F181)*2</f>
         <v>298</v>
       </c>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
       <c r="H6" s="99"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
@@ -17270,10 +17270,10 @@
       </c>
       <c r="E41" s="146"/>
       <c r="F41" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G41" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H41" s="112">
         <v>42381</v>
@@ -17531,10 +17531,10 @@
       </c>
       <c r="E42" s="146"/>
       <c r="F42" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G42" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H42" s="112">
         <v>42381</v>
@@ -18575,10 +18575,10 @@
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G46" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H46" s="112">
         <v>42381</v>
@@ -19880,10 +19880,10 @@
       </c>
       <c r="E51" s="146"/>
       <c r="F51" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G51" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H51" s="112">
         <v>42381</v>
@@ -30206,10 +30206,10 @@
       </c>
       <c r="E131" s="162"/>
       <c r="F131" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G131" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H131" s="112">
         <v>42412</v>
@@ -30233,10 +30233,10 @@
       </c>
       <c r="E132" s="162"/>
       <c r="F132" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G132" s="117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H132" s="112">
         <v>42412</v>
@@ -31458,10 +31458,10 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 F109:F117 F63:G65 F80:F85 F150:F155 F131:F142 F67:F76 F12:F20 F53:G61 F144:F148 F22:F51 G11:G51 F119:F129 F87:F94 G68:G76 F78:G78 F96:F107 F159:F176 G159:G65407">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 F109:F117 F63:G65 F80:F85 F150:F155 G11:G51 F67:F76 F12:F20 F53:G61 F144:F148 G159:G65407 F119:F129 F87:F94 G68:G76 F78:G78 F96:F107 F159:F176 F22:F51 F131:F142">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G109:G117 G131:G142 G67 G80:G85 G144:G148 G119:G129 G87:G94 G96:G107">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G109:G117 G96:G107 G67 G80:G85 G144:G148 G119:G129 G87:G94 G131:G142">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -31525,14 +31525,14 @@
       <c r="A2" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="256" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
@@ -31541,14 +31541,14 @@
       <c r="A3" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="256" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
@@ -31557,14 +31557,14 @@
       <c r="A4" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="257" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
       <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" s="137" customFormat="1" ht="14.25">
@@ -31580,11 +31580,11 @@
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="256" t="s">
+      <c r="E5" s="261" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
@@ -31606,12 +31606,12 @@
         <f>COUNTIF(F11:G761,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="254">
+      <c r="E6" s="259">
         <f>COUNTA(A11:A318)*2</f>
         <v>128</v>
       </c>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
@@ -31668,16 +31668,16 @@
     </row>
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="176"/>
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="260" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="255"/>
-      <c r="H11" s="255"/>
-      <c r="I11" s="255"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="260"/>
+      <c r="I11" s="260"/>
     </row>
     <row r="12" spans="1:10" s="111" customFormat="1" ht="48.75" customHeight="1">
       <c r="A12" s="134" t="str">
